--- a/natmiOut/OldD0/LR-pairs_lrc2p/Lama5-Bcam.xlsx
+++ b/natmiOut/OldD0/LR-pairs_lrc2p/Lama5-Bcam.xlsx
@@ -528,52 +528,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>5.98748822789918</v>
+        <v>15.68651366666667</v>
       </c>
       <c r="H2">
-        <v>5.98748822789918</v>
+        <v>47.059541</v>
       </c>
       <c r="I2">
-        <v>0.2343397883379473</v>
+        <v>0.4415027620929874</v>
       </c>
       <c r="J2">
-        <v>0.2343397883379473</v>
+        <v>0.4415027620929874</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>7.30183312627297</v>
+        <v>16.38230533333333</v>
       </c>
       <c r="N2">
-        <v>7.30183312627297</v>
+        <v>49.146916</v>
       </c>
       <c r="O2">
-        <v>0.1004860797818286</v>
+        <v>0.1975208036317654</v>
       </c>
       <c r="P2">
-        <v>0.1004860797818286</v>
+        <v>0.1975208036317654</v>
       </c>
       <c r="Q2">
-        <v>43.71963988564368</v>
+        <v>256.9812565028395</v>
       </c>
       <c r="R2">
-        <v>43.71963988564368</v>
+        <v>2312.831308525556</v>
       </c>
       <c r="S2">
-        <v>0.0235478866669838</v>
+        <v>0.08720598037425101</v>
       </c>
       <c r="T2">
-        <v>0.0235478866669838</v>
+        <v>0.08720598037425101</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,52 +590,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>5.98748822789918</v>
+        <v>15.68651366666667</v>
       </c>
       <c r="H3">
-        <v>5.98748822789918</v>
+        <v>47.059541</v>
       </c>
       <c r="I3">
-        <v>0.2343397883379473</v>
+        <v>0.4415027620929874</v>
       </c>
       <c r="J3">
-        <v>0.2343397883379473</v>
+        <v>0.4415027620929874</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.783523380261557</v>
+        <v>0.7974673333333332</v>
       </c>
       <c r="N3">
-        <v>0.783523380261557</v>
+        <v>2.392402</v>
       </c>
       <c r="O3">
-        <v>0.01078266122196059</v>
+        <v>0.009615031910654225</v>
       </c>
       <c r="P3">
-        <v>0.01078266122196059</v>
+        <v>0.009615031910654225</v>
       </c>
       <c r="Q3">
-        <v>4.691337015599846</v>
+        <v>12.50948222305355</v>
       </c>
       <c r="R3">
-        <v>4.691337015599846</v>
+        <v>112.585340007482</v>
       </c>
       <c r="S3">
-        <v>0.002526806548474037</v>
+        <v>0.004245063146166055</v>
       </c>
       <c r="T3">
-        <v>0.002526806548474037</v>
+        <v>0.004245063146166055</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,52 +652,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>5.98748822789918</v>
+        <v>15.68651366666667</v>
       </c>
       <c r="H4">
-        <v>5.98748822789918</v>
+        <v>47.059541</v>
       </c>
       <c r="I4">
-        <v>0.2343397883379473</v>
+        <v>0.4415027620929874</v>
       </c>
       <c r="J4">
-        <v>0.2343397883379473</v>
+        <v>0.4415027620929874</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>64.579764295535</v>
+        <v>65.75987233333333</v>
       </c>
       <c r="N4">
-        <v>64.579764295535</v>
+        <v>197.279617</v>
       </c>
       <c r="O4">
-        <v>0.8887312589962109</v>
+        <v>0.7928641644575803</v>
       </c>
       <c r="P4">
-        <v>0.8887312589962109</v>
+        <v>0.7928641644575803</v>
       </c>
       <c r="Q4">
-        <v>386.6705784800196</v>
+        <v>1031.543136075089</v>
       </c>
       <c r="R4">
-        <v>386.6705784800196</v>
+        <v>9283.888224675798</v>
       </c>
       <c r="S4">
-        <v>0.2082650951224895</v>
+        <v>0.3500517185725704</v>
       </c>
       <c r="T4">
-        <v>0.2082650951224895</v>
+        <v>0.3500517185725704</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,52 +714,52 @@
         <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.726977698269584</v>
+        <v>0.7566533333333333</v>
       </c>
       <c r="H5">
-        <v>0.726977698269584</v>
+        <v>2.26996</v>
       </c>
       <c r="I5">
-        <v>0.02845263213129963</v>
+        <v>0.0212962895205586</v>
       </c>
       <c r="J5">
-        <v>0.02845263213129963</v>
+        <v>0.0212962895205586</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>7.30183312627297</v>
+        <v>16.38230533333333</v>
       </c>
       <c r="N5">
-        <v>7.30183312627297</v>
+        <v>49.146916</v>
       </c>
       <c r="O5">
-        <v>0.1004860797818286</v>
+        <v>0.1975208036317654</v>
       </c>
       <c r="P5">
-        <v>0.1004860797818286</v>
+        <v>0.1975208036317654</v>
       </c>
       <c r="Q5">
-        <v>5.308269839286525</v>
+        <v>12.39572593815111</v>
       </c>
       <c r="R5">
-        <v>5.308269839286525</v>
+        <v>111.56153344336</v>
       </c>
       <c r="S5">
-        <v>0.002859093462348793</v>
+        <v>0.004206460220475478</v>
       </c>
       <c r="T5">
-        <v>0.002859093462348793</v>
+        <v>0.004206460220475478</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,52 +776,52 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.726977698269584</v>
+        <v>0.7566533333333333</v>
       </c>
       <c r="H6">
-        <v>0.726977698269584</v>
+        <v>2.26996</v>
       </c>
       <c r="I6">
-        <v>0.02845263213129963</v>
+        <v>0.0212962895205586</v>
       </c>
       <c r="J6">
-        <v>0.02845263213129963</v>
+        <v>0.0212962895205586</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.783523380261557</v>
+        <v>0.7974673333333332</v>
       </c>
       <c r="N6">
-        <v>0.783523380261557</v>
+        <v>2.392402</v>
       </c>
       <c r="O6">
-        <v>0.01078266122196059</v>
+        <v>0.009615031910654225</v>
       </c>
       <c r="P6">
-        <v>0.01078266122196059</v>
+        <v>0.009615031910654225</v>
       </c>
       <c r="Q6">
-        <v>0.5696040235229507</v>
+        <v>0.6034063159911109</v>
       </c>
       <c r="R6">
-        <v>0.5696040235229507</v>
+        <v>5.430656843919999</v>
       </c>
       <c r="S6">
-        <v>0.0003067950931448744</v>
+        <v>0.0002047645033187021</v>
       </c>
       <c r="T6">
-        <v>0.0003067950931448744</v>
+        <v>0.0002047645033187021</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,52 +838,52 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.726977698269584</v>
+        <v>0.7566533333333333</v>
       </c>
       <c r="H7">
-        <v>0.726977698269584</v>
+        <v>2.26996</v>
       </c>
       <c r="I7">
-        <v>0.02845263213129963</v>
+        <v>0.0212962895205586</v>
       </c>
       <c r="J7">
-        <v>0.02845263213129963</v>
+        <v>0.0212962895205586</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>64.579764295535</v>
+        <v>65.75987233333333</v>
       </c>
       <c r="N7">
-        <v>64.579764295535</v>
+        <v>197.279617</v>
       </c>
       <c r="O7">
-        <v>0.8887312589962109</v>
+        <v>0.7928641644575803</v>
       </c>
       <c r="P7">
-        <v>0.8887312589962109</v>
+        <v>0.7928641644575803</v>
       </c>
       <c r="Q7">
-        <v>46.9480484023603</v>
+        <v>49.75742660059111</v>
       </c>
       <c r="R7">
-        <v>46.9480484023603</v>
+        <v>447.81683940532</v>
       </c>
       <c r="S7">
-        <v>0.02528674357580596</v>
+        <v>0.01688506479676442</v>
       </c>
       <c r="T7">
-        <v>0.02528674357580596</v>
+        <v>0.01688506479676442</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,52 +900,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>18.8359891218851</v>
+        <v>19.086653</v>
       </c>
       <c r="H8">
-        <v>18.8359891218851</v>
+        <v>57.259959</v>
       </c>
       <c r="I8">
-        <v>0.7372075795307531</v>
+        <v>0.537200948386454</v>
       </c>
       <c r="J8">
-        <v>0.7372075795307531</v>
+        <v>0.5372009483864539</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>7.30183312627297</v>
+        <v>16.38230533333333</v>
       </c>
       <c r="N8">
-        <v>7.30183312627297</v>
+        <v>49.146916</v>
       </c>
       <c r="O8">
-        <v>0.1004860797818286</v>
+        <v>0.1975208036317654</v>
       </c>
       <c r="P8">
-        <v>0.1004860797818286</v>
+        <v>0.1975208036317654</v>
       </c>
       <c r="Q8">
-        <v>137.5372493362979</v>
+        <v>312.6833772373827</v>
       </c>
       <c r="R8">
-        <v>137.5372493362979</v>
+        <v>2814.150395136444</v>
       </c>
       <c r="S8">
-        <v>0.074079099652496</v>
+        <v>0.1061083630370389</v>
       </c>
       <c r="T8">
-        <v>0.074079099652496</v>
+        <v>0.1061083630370389</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,52 +962,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>18.8359891218851</v>
+        <v>19.086653</v>
       </c>
       <c r="H9">
-        <v>18.8359891218851</v>
+        <v>57.259959</v>
       </c>
       <c r="I9">
-        <v>0.7372075795307531</v>
+        <v>0.537200948386454</v>
       </c>
       <c r="J9">
-        <v>0.7372075795307531</v>
+        <v>0.5372009483864539</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.783523380261557</v>
+        <v>0.7974673333333332</v>
       </c>
       <c r="N9">
-        <v>0.783523380261557</v>
+        <v>2.392402</v>
       </c>
       <c r="O9">
-        <v>0.01078266122196059</v>
+        <v>0.009615031910654225</v>
       </c>
       <c r="P9">
-        <v>0.01078266122196059</v>
+        <v>0.009615031910654225</v>
       </c>
       <c r="Q9">
-        <v>14.75843786734933</v>
+        <v>15.22098227016867</v>
       </c>
       <c r="R9">
-        <v>14.75843786734933</v>
+        <v>136.988840431518</v>
       </c>
       <c r="S9">
-        <v>0.007949059580341681</v>
+        <v>0.005165204261169469</v>
       </c>
       <c r="T9">
-        <v>0.007949059580341681</v>
+        <v>0.005165204261169468</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,52 +1024,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>18.8359891218851</v>
+        <v>19.086653</v>
       </c>
       <c r="H10">
-        <v>18.8359891218851</v>
+        <v>57.259959</v>
       </c>
       <c r="I10">
-        <v>0.7372075795307531</v>
+        <v>0.537200948386454</v>
       </c>
       <c r="J10">
-        <v>0.7372075795307531</v>
+        <v>0.5372009483864539</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>64.579764295535</v>
+        <v>65.75987233333333</v>
       </c>
       <c r="N10">
-        <v>64.579764295535</v>
+        <v>197.279617</v>
       </c>
       <c r="O10">
-        <v>0.8887312589962109</v>
+        <v>0.7928641644575803</v>
       </c>
       <c r="P10">
-        <v>0.8887312589962109</v>
+        <v>0.7928641644575803</v>
       </c>
       <c r="Q10">
-        <v>1216.423737764601</v>
+        <v>1255.135864550634</v>
       </c>
       <c r="R10">
-        <v>1216.423737764601</v>
+        <v>11296.2227809557</v>
       </c>
       <c r="S10">
-        <v>0.6551794202979154</v>
+        <v>0.4259273810882456</v>
       </c>
       <c r="T10">
-        <v>0.6551794202979154</v>
+        <v>0.4259273810882456</v>
       </c>
     </row>
   </sheetData>
